--- a/hourly datasets/cap_gen_year1final.xlsx
+++ b/hourly datasets/cap_gen_year1final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1031225006782259</v>
+        <v>0.09435480859084534</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003256153621844965</v>
+        <v>0.002403912873815977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001866462117680516</v>
+        <v>0.0006046928049735363</v>
       </c>
       <c r="D3" t="n">
-        <v>2.80884629409704</v>
+        <v>4.149105628736279</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1589567594797394</v>
+        <v>0.06732253236063347</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.000402152764561458</v>
+        <v>0.001218730312147687</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006914460008251391</v>
+        <v>0.00358909543548427</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1063786543000708</v>
+        <v>0.09675872146466132</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007522503956378852</v>
+        <v>0.01024091117930792</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002898408711508355</v>
+        <v>0.001011414943208974</v>
       </c>
       <c r="D4" t="n">
-        <v>3.653489081845052</v>
+        <v>9.051232571738625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1270175201266959</v>
+        <v>0.04769876514732291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001841576320719294</v>
+        <v>0.008258563553724391</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01320343159203841</v>
+        <v>0.01222325880489146</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1106450046346047</v>
+        <v>0.1045957197701533</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02549283856015775</v>
+        <v>0.06087690981765643</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007400364362213371</v>
+        <v>0.003646393340780202</v>
       </c>
       <c r="D5" t="n">
-        <v>3.838305680935426</v>
+        <v>13.0966092325068</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1210610745962502</v>
+        <v>8.297900597811221e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01098801340773329</v>
+        <v>0.05373007421576488</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0399976637125822</v>
+        <v>0.068023745419548</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1286153392383836</v>
+        <v>0.1552317184085018</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03403641528639455</v>
+        <v>0.148641638762907</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006958628081249739</v>
+        <v>0.00689419406925055</v>
       </c>
       <c r="D6" t="n">
-        <v>4.755283788930092</v>
+        <v>24.17799185899922</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06859258734794192</v>
+        <v>0.02453548909062416</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02039747867153978</v>
+        <v>0.1351292109030406</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04767535190124934</v>
+        <v>0.1621540666227735</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1371589159646204</v>
+        <v>0.2429964473537524</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04504174179192082</v>
+        <v>0.1556083542319699</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006754495299732492</v>
+        <v>0.009797452638638134</v>
       </c>
       <c r="D7" t="n">
-        <v>4.434941423699883</v>
+        <v>23.36333613834265</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06505091277940546</v>
+        <v>0.04681745132946349</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03180293577026642</v>
+        <v>0.136405632036056</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05828054781357522</v>
+        <v>0.1748110764278839</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1481642424701467</v>
+        <v>0.2499631628228153</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02336881938053693</v>
+        <v>0.1262119232944673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004563489643607193</v>
+        <v>0.005053137174838146</v>
       </c>
       <c r="D8" t="n">
-        <v>4.699494099108127</v>
+        <v>26.80905749667661</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04769552002643553</v>
+        <v>0.03702528842349516</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01442436153943083</v>
+        <v>0.1163079221514899</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03231327722164306</v>
+        <v>0.1361159244374448</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1264913200587628</v>
+        <v>0.2205667318853127</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03385840321045346</v>
+        <v>0.1614645082822768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003777960212224936</v>
+        <v>0.005072185175960149</v>
       </c>
       <c r="D9" t="n">
-        <v>5.332672130104704</v>
+        <v>30.07050980183883</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02429406182251683</v>
+        <v>0.01295126740128811</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0264535247651374</v>
+        <v>0.1515231627768194</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04126328165576953</v>
+        <v>0.1714058537877342</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1369809038886793</v>
+        <v>0.2558193168731221</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1031225006782259</v>
+        <v>-0.09435480859084534</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001674501840412163</v>
+        <v>0.0004773167150480023</v>
       </c>
       <c r="D10" t="n">
-        <v>-101.6340730844052</v>
+        <v>-217.4873512448193</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0004014654359338137</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1064045412418627</v>
+        <v>-0.0952903367084274</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09984046011458908</v>
+        <v>-0.09341928047326332</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04411990673900804</v>
+        <v>-0.04246719039222534</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00195402459698743</v>
+        <v>0.0005424364399391171</v>
       </c>
       <c r="D11" t="n">
-        <v>-35.25580699661789</v>
+        <v>-81.90375937554948</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005152056420606502</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04794982325084012</v>
+        <v>-0.04353035142435559</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04028999022717596</v>
+        <v>-0.04140402936009509</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05900259393921782</v>
+        <v>0.05188761819862001</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03512819378616366</v>
+        <v>-0.03550239386095641</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001973990961485279</v>
+        <v>0.0005317802979303487</v>
       </c>
       <c r="D12" t="n">
-        <v>-27.54284661122776</v>
+        <v>-68.34002413869803</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004449827245410037</v>
+        <v>1.762030943082861e-286</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03899724362107899</v>
+        <v>-0.03654466915104662</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03125914395124833</v>
+        <v>-0.03446011857086619</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06799430689206221</v>
+        <v>0.05885241472988893</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02797155330366715</v>
+        <v>-0.02917258061474014</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001945596392994404</v>
+        <v>0.0005435910832097472</v>
       </c>
       <c r="D13" t="n">
-        <v>-21.41453539394904</v>
+        <v>-54.71148532831575</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0308018548449478</v>
+        <v>5.107383341384822e-210</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03178495062376796</v>
+        <v>-0.03023800487301915</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02415815598356634</v>
+        <v>-0.02810715635646114</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07515094737455871</v>
+        <v>0.06518222797610521</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02447835751364397</v>
+        <v>-0.02555556142957584</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001892922224888892</v>
+        <v>0.0005324262492471209</v>
       </c>
       <c r="D14" t="n">
-        <v>-16.85871198226535</v>
+        <v>-47.46898931106173</v>
       </c>
       <c r="E14" t="n">
-        <v>0.007209366171336013</v>
+        <v>1.196211425284462e-61</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02818851199299742</v>
+        <v>-0.02659910287314212</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02076820303429051</v>
+        <v>-0.02451201998600956</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07864414316458189</v>
+        <v>0.06879924716126951</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01957906884558594</v>
+        <v>-0.0199283093706227</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001834725638139431</v>
+        <v>0.0005161643122518713</v>
       </c>
       <c r="D15" t="n">
-        <v>-14.59115146107797</v>
+        <v>-39.0977475129877</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02479411766125856</v>
+        <v>2.316799870602134e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02317515996428436</v>
+        <v>-0.02093997791512081</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01598297772688754</v>
+        <v>-0.0189166408261246</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08354343183263992</v>
+        <v>0.07442649922022264</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01603647826112487</v>
+        <v>-0.01753250648117852</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001740191805022148</v>
+        <v>0.0004802995299431071</v>
       </c>
       <c r="D16" t="n">
-        <v>-13.38209504344669</v>
+        <v>-36.67797658071094</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01244688456643594</v>
+        <v>0.0529967000641883</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01944728298497806</v>
+        <v>-0.01847388104430327</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01262567353727167</v>
+        <v>-0.01659113191805377</v>
       </c>
       <c r="H16" t="n">
-        <v>0.08708602241710099</v>
+        <v>0.07682230210966683</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01465190229350593</v>
+        <v>-0.01547955963961896</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001767452963056486</v>
+        <v>0.0004953222227543079</v>
       </c>
       <c r="D17" t="n">
-        <v>-10.1281919007639</v>
+        <v>-30.42279407529585</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03884560156645318</v>
+        <v>1.323335854612009e-22</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01811613556267305</v>
+        <v>-0.01645037819023642</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.01118766902433882</v>
+        <v>-0.0145087410890015</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08847059838471992</v>
+        <v>0.07887524895122638</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01053730309360221</v>
+        <v>-0.01271862244494612</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001806759495401306</v>
+        <v>0.0005203507763497718</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.411693284022326</v>
+        <v>-23.24264796306787</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0464024704254422</v>
+        <v>5.437121218992554e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01407857725495463</v>
+        <v>-0.01373849633653106</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.006996028932249797</v>
+        <v>-0.01169874855336118</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09258519758462365</v>
+        <v>0.08163618614589922</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.007838835435798976</v>
+        <v>-0.0101841108751682</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001860625314163428</v>
+        <v>0.000537735591525884</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.311030706661167</v>
+        <v>-17.67026099884727</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06687189026758379</v>
+        <v>0.07731248174601105</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01148569358388541</v>
+        <v>-0.01123805888241611</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.004191977287712552</v>
+        <v>-0.009130162867920285</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09528366524242687</v>
+        <v>0.08417069771567715</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.006561130373241854</v>
+        <v>-0.008979698013693508</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001848695210912504</v>
+        <v>0.0005326090811532338</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.736499207984989</v>
+        <v>-14.48067645808695</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07004646797965577</v>
+        <v>0.01922332833845312</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01018460917614603</v>
+        <v>-0.01002359820127895</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.002937651570337682</v>
+        <v>-0.007935797826108065</v>
       </c>
       <c r="H20" t="n">
-        <v>0.096561370304984</v>
+        <v>0.08537511057715183</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.005432388939152926</v>
+        <v>-0.007800061518731668</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00186624213073159</v>
+        <v>0.0005297896184014143</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.12815108527506</v>
+        <v>-12.32883015589398</v>
       </c>
       <c r="E21" t="n">
-        <v>0.07768831069748582</v>
+        <v>0.1328930758081338</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.009090258592912938</v>
+        <v>-0.008838435593977047</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.001774519285392913</v>
+        <v>-0.006761687443486292</v>
       </c>
       <c r="H21" t="n">
-        <v>0.09769011173907292</v>
+        <v>0.08655474707211368</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005539724114655879</v>
+        <v>-0.00601869124245415</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001805888546384432</v>
+        <v>0.0005182453563018003</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.819037795901101</v>
+        <v>-9.120369155499743</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1058517805274512</v>
+        <v>0.09894062606354796</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.009079297784310368</v>
+        <v>-0.007034438714827346</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.002000150445001391</v>
+        <v>-0.005002943770080956</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09758277656356998</v>
+        <v>0.0883361173483912</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004859379304240265</v>
+        <v>-0.004897516296441459</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001769322768931178</v>
+        <v>0.0005058514108379643</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.178745977042778</v>
+        <v>-7.579112915850029</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08404763674170303</v>
+        <v>0.08025350423650958</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.00832728155728177</v>
+        <v>-0.005888971969813844</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.001391477051198767</v>
+        <v>-0.003906060623069074</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09826312137398559</v>
+        <v>0.08945729229440388</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004170170666292653</v>
+        <v>-0.004828631838060799</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001740719102262132</v>
+        <v>0.0004870030769324599</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.640813955684033</v>
+        <v>-7.40979762896782</v>
       </c>
       <c r="E24" t="n">
-        <v>0.106978947511578</v>
+        <v>0.1496211128708858</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007582007634098615</v>
+        <v>-0.005783145052994634</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0007583336984866932</v>
+        <v>-0.003874118623126968</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09895233001193321</v>
+        <v>0.08952617675278454</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001981232209348609</v>
+        <v>-0.002795294661318059</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001788457542270079</v>
+        <v>0.0004643788831731986</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.009851686139636</v>
+        <v>-5.19344164207013</v>
       </c>
       <c r="E25" t="n">
-        <v>0.175777386610153</v>
+        <v>0.1400155493671354</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.005486643559510591</v>
+        <v>-0.003705465207221732</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001524179140813373</v>
+        <v>-0.001885124115414385</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1011412684688772</v>
+        <v>0.09155951392952728</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.04399658580647118</v>
+        <v>0.2194895188580215</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00158264887177532</v>
+        <v>0.001200816808151769</v>
       </c>
       <c r="D26" t="n">
-        <v>24.98666500616135</v>
+        <v>182.7918824392778</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01964291854564578</v>
+        <v>2.442464564115682e-11</v>
       </c>
       <c r="F26" t="n">
-        <v>0.04089457541411266</v>
+        <v>0.2171359512597167</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0470985961988297</v>
+        <v>0.2218430864563261</v>
       </c>
       <c r="H26" t="n">
-        <v>0.147119086484697</v>
+        <v>0.3138443274488668</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year1final.xlsx
+++ b/hourly datasets/cap_gen_year1final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09435480859084534</v>
+        <v>0.09670944106007266</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002403912873815977</v>
+        <v>0.0007181408222125472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006046928049735363</v>
+        <v>0.0006456742454108451</v>
       </c>
       <c r="D3" t="n">
-        <v>4.149105628736279</v>
+        <v>3.343316582049975</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06732253236063347</v>
+        <v>0.1111278437130677</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001218730312147687</v>
+        <v>-0.0005473645205285412</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00358909543548427</v>
+        <v>0.001983646164953636</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09675872146466132</v>
+        <v>0.09742758188228522</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01024091117930792</v>
+        <v>0.006730217502989785</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001011414943208974</v>
+        <v>0.001062176549595474</v>
       </c>
       <c r="D4" t="n">
-        <v>9.051232571738625</v>
+        <v>7.573105111637725</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04769876514732291</v>
+        <v>0.005255491607395295</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008258563553724391</v>
+        <v>0.004648377877752108</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01222325880489146</v>
+        <v>0.008812057128227462</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1045957197701533</v>
+        <v>0.1034396585630624</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06087690981765643</v>
+        <v>0.05757937291370765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003646393340780202</v>
+        <v>0.003659041980688558</v>
       </c>
       <c r="D5" t="n">
-        <v>13.0966092325068</v>
+        <v>11.9809997990021</v>
       </c>
       <c r="E5" t="n">
-        <v>8.297900597811221e-06</v>
+        <v>8.151604713942925e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05373007421576488</v>
+        <v>0.05040774611879968</v>
       </c>
       <c r="G5" t="n">
-        <v>0.068023745419548</v>
+        <v>0.06475099970861563</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1552317184085018</v>
+        <v>0.1542888139737803</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.148641638762907</v>
+        <v>0.1421397200444192</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00689419406925055</v>
+        <v>0.006833399540365257</v>
       </c>
       <c r="D6" t="n">
-        <v>24.17799185899922</v>
+        <v>22.54063468538236</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02453548909062416</v>
+        <v>0.0698891833835133</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1351292109030406</v>
+        <v>0.1287464468515346</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1621540666227735</v>
+        <v>0.1555329932373039</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2429964473537524</v>
+        <v>0.2388491611044919</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1556083542319699</v>
+        <v>0.1525347834610833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009797452638638134</v>
+        <v>0.008832199750197984</v>
       </c>
       <c r="D7" t="n">
-        <v>23.36333613834265</v>
+        <v>22.20812405865698</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04681745132946349</v>
+        <v>0.01670184243473754</v>
       </c>
       <c r="F7" t="n">
-        <v>0.136405632036056</v>
+        <v>0.1352239235672669</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1748110764278839</v>
+        <v>0.1698456433548997</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2499631628228153</v>
+        <v>0.249244224521156</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1262119232944673</v>
+        <v>0.1188131832972433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005053137174838146</v>
+        <v>0.007139939706105308</v>
       </c>
       <c r="D8" t="n">
-        <v>26.80905749667661</v>
+        <v>25.36376872279435</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03702528842349516</v>
+        <v>0.1615881996409313</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1163079221514899</v>
+        <v>0.104819108913581</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1361159244374448</v>
+        <v>0.1328072576809056</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2205667318853127</v>
+        <v>0.215522624357316</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1614645082822768</v>
+        <v>0.1528465087908066</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005072185175960149</v>
+        <v>0.005071218772537161</v>
       </c>
       <c r="D9" t="n">
-        <v>30.07050980183883</v>
+        <v>28.18731133845227</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01295126740128811</v>
+        <v>0.06825114641599318</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1515231627768194</v>
+        <v>0.142907061941958</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1714058537877342</v>
+        <v>0.1627859556396552</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2558193168731221</v>
+        <v>0.2495559498508793</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09435480859084534</v>
+        <v>-0.09670944106007266</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004773167150480023</v>
+        <v>0.000486424789826354</v>
       </c>
       <c r="D10" t="n">
-        <v>-217.4873512448193</v>
+        <v>-220.6632857331663</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0952903367084274</v>
+        <v>-0.09766282079320154</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09341928047326332</v>
+        <v>-0.09575606132694378</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04246719039222534</v>
+        <v>-0.04289842232710786</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005424364399391171</v>
+        <v>0.0005527340143139984</v>
       </c>
       <c r="D11" t="n">
-        <v>-81.90375937554948</v>
+        <v>-81.17378622283701</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04353035142435559</v>
+        <v>-0.0439817663613824</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04140402936009509</v>
+        <v>-0.04181507829283333</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05188761819862001</v>
+        <v>0.0538110187329648</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03550239386095641</v>
+        <v>-0.03562312440582237</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005317802979303487</v>
+        <v>0.0005388297123244814</v>
       </c>
       <c r="D12" t="n">
-        <v>-68.34002413869803</v>
+        <v>-68.18148720046167</v>
       </c>
       <c r="E12" t="n">
-        <v>1.762030943082861e-286</v>
+        <v>8.011344845848471e-302</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03654466915104662</v>
+        <v>-0.03667921641038941</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03446011857086619</v>
+        <v>-0.03456703240125534</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05885241472988893</v>
+        <v>0.06108631665425029</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02917258061474014</v>
+        <v>-0.02914935592506731</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005435910832097472</v>
+        <v>0.0005497894003676043</v>
       </c>
       <c r="D13" t="n">
-        <v>-54.71148532831575</v>
+        <v>-54.27834029134604</v>
       </c>
       <c r="E13" t="n">
-        <v>5.107383341384822e-210</v>
+        <v>9.196349991121196e-242</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03023800487301915</v>
+        <v>-0.03022692877622917</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02810715635646114</v>
+        <v>-0.02807178307390543</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06518222797610521</v>
+        <v>0.06756008513500536</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02555556142957584</v>
+        <v>-0.02557044647784329</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005324262492471209</v>
+        <v>0.0005393579743308732</v>
       </c>
       <c r="D14" t="n">
-        <v>-47.46898931106173</v>
+        <v>-47.04710983807838</v>
       </c>
       <c r="E14" t="n">
-        <v>1.196211425284462e-61</v>
+        <v>1.042416895817542e-66</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02659910287314212</v>
+        <v>-0.02662757396924921</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02451201998600956</v>
+        <v>-0.02451331898643739</v>
       </c>
       <c r="H14" t="n">
-        <v>0.06879924716126951</v>
+        <v>0.07113899458222937</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0199283093706227</v>
+        <v>-0.01979159605943331</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005161643122518713</v>
+        <v>0.0005230757139843105</v>
       </c>
       <c r="D15" t="n">
-        <v>-39.0977475129877</v>
+        <v>-38.70544027526312</v>
       </c>
       <c r="E15" t="n">
-        <v>2.316799870602134e-07</v>
+        <v>2.025800641138615e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02093997791512081</v>
+        <v>-0.02081681081209031</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0189166408261246</v>
+        <v>-0.01876638130677632</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07442649922022264</v>
+        <v>0.07691784500063935</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01753250648117852</v>
+        <v>-0.01767360779855304</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004802995299431071</v>
+        <v>0.0004866133420091809</v>
       </c>
       <c r="D16" t="n">
-        <v>-36.67797658071094</v>
+        <v>-36.58699460068951</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0529967000641883</v>
+        <v>0.0005253461589876362</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01847388104430327</v>
+        <v>-0.0186273573229362</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.01659113191805377</v>
+        <v>-0.01671985827416987</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07682230210966683</v>
+        <v>0.07903583326151963</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01547955963961896</v>
+        <v>-0.0156685845742098</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004953222227543079</v>
+        <v>0.0005021237621244497</v>
       </c>
       <c r="D17" t="n">
-        <v>-30.42279407529585</v>
+        <v>-30.27515681851496</v>
       </c>
       <c r="E17" t="n">
-        <v>1.323335854612009e-22</v>
+        <v>8.016744277339554e-29</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01645037819023642</v>
+        <v>-0.0166527340231373</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0145087410890015</v>
+        <v>-0.01468443512528231</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07887524895122638</v>
+        <v>0.08104085648586286</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01271862244494612</v>
+        <v>-0.01278770529322103</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005203507763497718</v>
+        <v>0.0005271152613802454</v>
       </c>
       <c r="D18" t="n">
-        <v>-23.24264796306787</v>
+        <v>-23.09915867339197</v>
       </c>
       <c r="E18" t="n">
-        <v>5.437121218992554e-05</v>
+        <v>3.821055869174298e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01373849633653106</v>
+        <v>-0.01382083745624515</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01169874855336118</v>
+        <v>-0.0117545731301969</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08163618614589922</v>
+        <v>0.08392173576685164</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0101841108751682</v>
+        <v>-0.01027734397521401</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000537735591525884</v>
+        <v>0.0005454152363572144</v>
       </c>
       <c r="D19" t="n">
-        <v>-17.67026099884727</v>
+        <v>-17.43741358663995</v>
       </c>
       <c r="E19" t="n">
-        <v>0.07731248174601105</v>
+        <v>0.01607686818657263</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01123805888241611</v>
+        <v>-0.01134634395281842</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.009130162867920285</v>
+        <v>-0.009208343997609598</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08417069771567715</v>
+        <v>0.08643209708485865</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.008979698013693508</v>
+        <v>-0.009143484046139122</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005326090811532338</v>
+        <v>0.0005414770608356968</v>
       </c>
       <c r="D20" t="n">
-        <v>-14.48067645808695</v>
+        <v>-14.65436077046107</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01922332833845312</v>
+        <v>0.001034653562465794</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01002359820127895</v>
+        <v>-0.01020476530096921</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.007935797826108065</v>
+        <v>-0.008082202791309041</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08537511057715183</v>
+        <v>0.08756595701393353</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.007800061518731668</v>
+        <v>-0.007842069094579684</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005297896184014143</v>
+        <v>0.0005384871656295448</v>
       </c>
       <c r="D21" t="n">
-        <v>-12.32883015589398</v>
+        <v>-12.42025291482473</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1328930758081338</v>
+        <v>0.05393780759939621</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.008838435593977047</v>
+        <v>-0.00889749019635429</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006761687443486292</v>
+        <v>-0.006786647992805075</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08655474707211368</v>
+        <v>0.08886737196549298</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.00601869124245415</v>
+        <v>-0.006185963992127378</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005182453563018003</v>
+        <v>0.0005265880816652773</v>
       </c>
       <c r="D22" t="n">
-        <v>-9.120369155499743</v>
+        <v>-9.594278817954351</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09894062606354796</v>
+        <v>0.07428951265345166</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007034438714827346</v>
+        <v>-0.007218063048928506</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005002943770080956</v>
+        <v>-0.005153864935326248</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0883361173483912</v>
+        <v>0.09052347706794528</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004897516296441459</v>
+        <v>-0.00493141668178525</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005058514108379643</v>
+        <v>0.0005130003960167529</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.579112915850029</v>
+        <v>-7.621186476491797</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08025350423650958</v>
+        <v>0.1332900644613259</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.005888971969813844</v>
+        <v>-0.005936884209634181</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003906060623069074</v>
+        <v>-0.003925949153936318</v>
       </c>
       <c r="H23" t="n">
-        <v>0.08945729229440388</v>
+        <v>0.09177802437828741</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004828631838060799</v>
+        <v>-0.004812750268536412</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004870030769324599</v>
+        <v>0.0004934780741197414</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.40979762896782</v>
+        <v>-7.289802019375805</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1496211128708858</v>
+        <v>0.1500622998775247</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.005783145052994634</v>
+        <v>-0.005779954363723758</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.003874118623126968</v>
+        <v>-0.003845546173349063</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08952617675278454</v>
+        <v>0.09189669079153626</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002795294661318059</v>
+        <v>-0.003009426951930762</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004643788831731986</v>
+        <v>0.0004727946880620709</v>
       </c>
       <c r="D25" t="n">
-        <v>-5.19344164207013</v>
+        <v>-5.508447486502535</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1400155493671354</v>
+        <v>0.2204636315748048</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003705465207221732</v>
+        <v>-0.003936092314787042</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001885124115414385</v>
+        <v>-0.002082761589074483</v>
       </c>
       <c r="H25" t="n">
-        <v>0.09155951392952728</v>
+        <v>0.0937000141081419</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2194895188580215</v>
+        <v>0.2144594355512348</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001200816808151769</v>
+        <v>0.004224938131551329</v>
       </c>
       <c r="D26" t="n">
-        <v>182.7918824392778</v>
+        <v>176.1488789427461</v>
       </c>
       <c r="E26" t="n">
-        <v>2.442464564115682e-11</v>
+        <v>0.02386568229315928</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2171359512597167</v>
+        <v>0.2061786714208066</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2218430864563261</v>
+        <v>0.222740199681663</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3138443274488668</v>
+        <v>0.3111688766113074</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year1final.xlsx
+++ b/hourly datasets/cap_gen_year1final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,635 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.09670944106007266</v>
+        <v>0.1608263089644348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0007181408222125472</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0006456742454108451</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.343316582049975</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1111278437130677</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.0005473645205285412</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.001983646164953636</v>
-      </c>
+        <v>0.08383775714240689</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.09742758188228522</v>
+        <v>0.2446640661068417</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006730217502989785</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.001062176549595474</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.573105111637725</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.005255491607395295</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.004648377877752108</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.008812057128227462</v>
-      </c>
+        <v>0.1436815007664592</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1034396585630624</v>
+        <v>0.3045078097308941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05757937291370765</v>
+        <v>0.03807937337817258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003659041980688558</v>
+        <v>0.005171785912454492</v>
       </c>
       <c r="D5" t="n">
-        <v>11.9809997990021</v>
+        <v>5.92356507236705</v>
       </c>
       <c r="E5" t="n">
-        <v>8.151604713942925e-05</v>
+        <v>0.03566479942835411</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05040774611879968</v>
+        <v>0.02792832140913461</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06475099970861563</v>
+        <v>0.04823042534721085</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1542888139737803</v>
+        <v>0.1989056823426074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1421397200444192</v>
+        <v>0.0311845131211273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006833399540365257</v>
+        <v>0.005450573236991663</v>
       </c>
       <c r="D6" t="n">
-        <v>22.54063468538236</v>
+        <v>2.842790292257815</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0698891833835133</v>
+        <v>0.02518842850168087</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1287464468515346</v>
+        <v>0.02044743464276152</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1555329932373039</v>
+        <v>0.04192159159949302</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2388491611044919</v>
+        <v>0.1920108220855621</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1525347834610833</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.008832199750197984</v>
+        <v>0.01916391879898188</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>22.20812405865698</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.01670184243473754</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1352239235672669</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1698456433548997</v>
-      </c>
+        <v>1.603464418472814</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.249244224521156</v>
+        <v>0.1799902277634167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1188131832972433</v>
+        <v>0.01433179073703775</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007139939706105308</v>
+        <v>0.001599335719234328</v>
       </c>
       <c r="D8" t="n">
-        <v>25.36376872279435</v>
+        <v>1.055238561823646</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1615881996409313</v>
+        <v>0.001987766671912113</v>
       </c>
       <c r="F8" t="n">
-        <v>0.104819108913581</v>
+        <v>0.01119485110255542</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1328072576809056</v>
+        <v>0.01746873037152011</v>
       </c>
       <c r="H8" t="n">
-        <v>0.215522624357316</v>
+        <v>0.1751580997014726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1528465087908066</v>
+        <v>0.008264507700621114</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005071218772537161</v>
+        <v>0.001118219490079376</v>
       </c>
       <c r="D9" t="n">
-        <v>28.18731133845227</v>
+        <v>0.6873411045534267</v>
       </c>
       <c r="E9" t="n">
-        <v>0.06825114641599318</v>
+        <v>0.00667264867424386</v>
       </c>
       <c r="F9" t="n">
-        <v>0.142907061941958</v>
+        <v>0.006063275660993667</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1627859556396552</v>
+        <v>0.01046573974024847</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2495559498508793</v>
+        <v>0.169090816665056</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.09670944106007266</v>
+        <v>0.01130995653973024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000486424789826354</v>
+        <v>0.001792542625902326</v>
       </c>
       <c r="D10" t="n">
-        <v>-220.6632857331663</v>
+        <v>0.5725984206122339</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.001162571485931568</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09766282079320154</v>
+        <v>0.007742341820352138</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09575606132694378</v>
+        <v>0.01487757125910821</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1721362655041651</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04289842232710786</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005527340143139984</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-81.17378622283701</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.0439817663613824</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04181507829283333</v>
-      </c>
+        <v>0.02369651275248908</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.0538110187329648</v>
+        <v>0.1845228217169239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03562312440582237</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005388297123244814</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-68.18148720046167</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.011344845848471e-302</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.03667921641038941</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03456703240125534</v>
-      </c>
+        <v>0.0388536262651345</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06108631665425029</v>
+        <v>0.1996799352295693</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02914935592506731</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005497894003676043</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-54.27834029134604</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.196349991121196e-242</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03022692877622917</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.02807178307390543</v>
-      </c>
+        <v>0.04898295276182311</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.06756008513500536</v>
+        <v>0.2098092617262579</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02557044647784329</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0005393579743308732</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-47.04710983807838</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.042416895817542e-66</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02662757396924921</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02451331898643739</v>
-      </c>
+        <v>0.05367389787600669</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.07113899458222937</v>
+        <v>0.2145002068404415</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01979159605943331</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0005230757139843105</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-38.70544027526312</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.025800641138615e-14</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.02081681081209031</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.01876638130677632</v>
-      </c>
+        <v>0.0580463021663184</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.07691784500063935</v>
+        <v>0.2188726111307532</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01767360779855304</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004866133420091809</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-36.58699460068951</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.0005253461589876362</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.0186273573229362</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.01671985827416987</v>
-      </c>
+        <v>0.06068605730858514</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.07903583326151963</v>
+        <v>0.22151236627302</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0156685845742098</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0005021237621244497</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-30.27515681851496</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8.016744277339554e-29</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.0166527340231373</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.01468443512528231</v>
-      </c>
+        <v>0.06445535214716865</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08104085648586286</v>
+        <v>0.2252816611116035</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01278770529322103</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005271152613802454</v>
+        <v>-0.1608263089644348</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>-23.09915867339197</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3.821055869174298e-05</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.01382083745624515</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.0117545731301969</v>
-      </c>
+        <v>-31.84812223661567</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.08392173576685164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01027734397521401</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0005454152363572144</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-17.43741358663995</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.01607686818657263</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01134634395281842</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.009208343997609598</v>
-      </c>
+        <v>0.06623660685134801</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.08643209708485865</v>
+        <v>0.2270629158157829</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.009143484046139122</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0005414770608356968</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-14.65436077046107</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.001034653562465794</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01020476530096921</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.008082202791309041</v>
-      </c>
+        <v>0.06860413987752412</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.08756595701393353</v>
+        <v>0.229430448841959</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.007842069094579684</v>
+        <v>0.06852467711910966</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005384871656295448</v>
+        <v>0.009134891188117788</v>
       </c>
       <c r="D21" t="n">
-        <v>-12.42025291482473</v>
+        <v>12.12812397709738</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05393780759939621</v>
+        <v>0.05695013769499697</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.00889749019635429</v>
+        <v>0.05050115340395908</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.006786647992805075</v>
+        <v>0.08654820083426007</v>
       </c>
       <c r="H21" t="n">
-        <v>0.08886737196549298</v>
+        <v>0.2293509860835445</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006185963992127378</v>
+        <v>0.07056533000935437</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005265880816652773</v>
+        <v>0.009148577756982421</v>
       </c>
       <c r="D22" t="n">
-        <v>-9.594278817954351</v>
+        <v>12.14443504190128</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07428951265345166</v>
+        <v>0.05533747317790644</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007218063048928506</v>
+        <v>0.0525167894099901</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.005153864935326248</v>
+        <v>0.08861387060871848</v>
       </c>
       <c r="H22" t="n">
-        <v>0.09052347706794528</v>
+        <v>0.2313916389737892</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.00493141668178525</v>
+        <v>0.0736267531071834</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0005130003960167529</v>
+        <v>0.009303785497759677</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.621186476491797</v>
+        <v>12.45567156672544</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1332900644613259</v>
+        <v>0.06423078910071384</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.005936884209634181</v>
+        <v>0.05528821543129862</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003925949153936318</v>
+        <v>0.09196529078306862</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09177802437828741</v>
+        <v>0.2344530620716183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004812750268536412</v>
+        <v>0.07292401835203394</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004934780741197414</v>
+        <v>0.009185032460107895</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.289802019375805</v>
+        <v>12.37044371805256</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1500622998775247</v>
+        <v>0.06432601468510835</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.005779954363723758</v>
+        <v>0.054800555255195</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.003845546173349063</v>
+        <v>0.09104748144887269</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09189669079153626</v>
+        <v>0.2337503273164688</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.003009426951930762</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0004727946880620709</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-5.508447486502535</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.2204636315748048</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.003936092314787042</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.002082761589074483</v>
-      </c>
+        <v>0.0726479956090859</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.0937000141081419</v>
+        <v>0.2334743045735208</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.07418613813383945</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.009042659154478</v>
+      </c>
+      <c r="D26" t="n">
+        <v>12.31473218072521</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05799442429438223</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.05621858621443261</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0921536900532465</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2350124470982743</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0753287945439718</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.008936457523447109</v>
+      </c>
+      <c r="D27" t="n">
+        <v>12.53089975934169</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.05936181188893366</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.05771417437498182</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.09294341471296168</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2361551035084066</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.08053190531088809</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.009664882244721128</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12.77457694250445</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08933556188651216</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.06152497125762652</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.09953883936414988</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2413582142753229</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.2144594355512348</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.004224938131551329</v>
-      </c>
-      <c r="D26" t="n">
-        <v>176.1488789427461</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.02386568229315928</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.2061786714208066</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.222740199681663</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.3111688766113074</v>
+      <c r="B29" t="n">
+        <v>0.0236734000856422</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.004613850401509348</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.804235832232309</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.004198081913558143</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.01455261036556817</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03279418980571657</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.184499709050077</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year1final.xlsx
+++ b/hourly datasets/cap_gen_year1final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1608263089644348</v>
+        <v>0.09997464971745799</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08383775714240689</v>
+        <v>0.0870436897600398</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.2446640661068417</v>
+        <v>0.1870183394774978</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1436815007664592</v>
+        <v>0.1404651350714983</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.3045078097308941</v>
+        <v>0.2404397847889563</v>
       </c>
     </row>
     <row r="5">
@@ -536,25 +536,15 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03807937337817258</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.005171785912454492</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.92356507236705</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.03566479942835411</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.02792832140913461</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.04823042534721085</v>
-      </c>
+        <v>0.04737453848398046</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1989056823426074</v>
+        <v>0.1473491882014384</v>
       </c>
     </row>
     <row r="6">
@@ -564,25 +554,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0311845131211273</v>
+        <v>0.04164534289154693</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005450573236991663</v>
+        <v>0.00758821968299475</v>
       </c>
       <c r="D6" t="n">
-        <v>2.842790292257815</v>
+        <v>3.234991697728881</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02518842850168087</v>
+        <v>0.04027346932383607</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02044743464276152</v>
+        <v>0.02664642311026557</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04192159159949302</v>
+        <v>0.05664426267282812</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1920108220855621</v>
+        <v>0.1416199926090049</v>
       </c>
     </row>
     <row r="7">
@@ -592,21 +582,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01916391879898188</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.02766585445522624</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.00779535697115388</v>
       </c>
       <c r="D7" t="n">
-        <v>1.603464418472814</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+        <v>1.887231479864464</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04059096086069674</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.01231001800819922</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04302169090225323</v>
+      </c>
       <c r="H7" t="n">
-        <v>0.1799902277634167</v>
+        <v>0.1276405041726842</v>
       </c>
     </row>
     <row r="8">
@@ -616,25 +610,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01433179073703775</v>
+        <v>0.02470149967721591</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001599335719234328</v>
+        <v>0.004684855644768912</v>
       </c>
       <c r="D8" t="n">
-        <v>1.055238561823646</v>
+        <v>1.389282604641385</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001987766671912113</v>
+        <v>0.01315195166956533</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01119485110255542</v>
+        <v>0.01544761526769005</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01746873037152011</v>
+        <v>0.03395538408674198</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1751580997014726</v>
+        <v>0.1246761493946739</v>
       </c>
     </row>
     <row r="9">
@@ -644,25 +638,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008264507700621114</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.001118219490079376</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.6873411045534267</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.00667264867424386</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.006063275660993667</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01046573974024847</v>
-      </c>
+        <v>0.01888326388650609</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0.169090816665056</v>
+        <v>0.1188579136039641</v>
       </c>
     </row>
     <row r="10">
@@ -672,25 +656,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01130995653973024</v>
+        <v>0.02369878698745892</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001792542625902326</v>
+        <v>0.004273605237485141</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5725984206122339</v>
+        <v>1.042120459021991</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001162571485931568</v>
+        <v>0.01100731430426948</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007742341820352138</v>
+        <v>0.01519526873048314</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01487757125910821</v>
+        <v>0.03220230524443489</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1721362655041651</v>
+        <v>0.1236734367049169</v>
       </c>
     </row>
     <row r="11">
@@ -700,7 +684,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02369651275248908</v>
+        <v>0.02400530286068364</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -708,7 +692,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1845228217169239</v>
+        <v>0.1239799525781416</v>
       </c>
     </row>
     <row r="12">
@@ -718,7 +702,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0388536262651345</v>
+        <v>0.03883669499125091</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -726,7 +710,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1996799352295693</v>
+        <v>0.1388113447087089</v>
       </c>
     </row>
     <row r="13">
@@ -736,7 +720,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04898295276182311</v>
+        <v>0.04944992167375207</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -744,7 +728,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.2098092617262579</v>
+        <v>0.1494245713912101</v>
       </c>
     </row>
     <row r="14">
@@ -754,7 +738,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.05367389787600669</v>
+        <v>0.05444133214279879</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -762,7 +746,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2145002068404415</v>
+        <v>0.1544159818602568</v>
       </c>
     </row>
     <row r="15">
@@ -772,7 +756,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0580463021663184</v>
+        <v>0.06059297091547133</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -780,7 +764,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2188726111307532</v>
+        <v>0.1605676206329293</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +774,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06068605730858514</v>
+        <v>0.06293349958891602</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -798,7 +782,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.22151236627302</v>
+        <v>0.162908149306374</v>
       </c>
     </row>
     <row r="17">
@@ -808,15 +792,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.06445535214716865</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+        <v>0.06673435934246637</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.009175963386418757</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.51049643918773</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.05719195765868181</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.04864231096523789</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.08482640771969492</v>
+      </c>
       <c r="H17" t="n">
-        <v>0.2252816611116035</v>
+        <v>0.1667090090599244</v>
       </c>
     </row>
     <row r="18">
@@ -826,19 +820,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1608263089644348</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>-0.09997464971745799</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01295305454255576</v>
       </c>
       <c r="D18" t="n">
-        <v>-31.84812223661567</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-14.80351988215079</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.05011510350319052</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1255028878472522</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.07444641158766359</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -850,15 +848,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06623660685134801</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+        <v>0.06843837116250542</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.009476054681405473</v>
+      </c>
+      <c r="D19" t="n">
+        <v>12.02898695325092</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.05792681307000966</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.04973236581928257</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.08714437650572826</v>
+      </c>
       <c r="H19" t="n">
-        <v>0.2270629158157829</v>
+        <v>0.1684130208799634</v>
       </c>
     </row>
     <row r="20">
@@ -868,7 +876,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06860413987752412</v>
+        <v>0.0730291089370923</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -876,7 +884,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.229430448841959</v>
+        <v>0.1730037586545503</v>
       </c>
     </row>
     <row r="21">
@@ -886,25 +894,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.06852467711910966</v>
+        <v>0.07102478244049937</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009134891188117788</v>
+        <v>0.009455517814283712</v>
       </c>
       <c r="D21" t="n">
-        <v>12.12812397709738</v>
+        <v>12.07657423541167</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05695013769499697</v>
+        <v>0.05720708924962065</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05050115340395908</v>
+        <v>0.05237497107718301</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08654820083426007</v>
+        <v>0.08967459380381548</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2293509860835445</v>
+        <v>0.1709994321579574</v>
       </c>
     </row>
     <row r="22">
@@ -914,25 +922,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.07056533000935437</v>
+        <v>0.07417030871005445</v>
       </c>
       <c r="C22" t="n">
-        <v>0.009148577756982421</v>
+        <v>0.009456611837933062</v>
       </c>
       <c r="D22" t="n">
-        <v>12.14443504190128</v>
+        <v>12.23124135819625</v>
       </c>
       <c r="E22" t="n">
-        <v>0.05533747317790644</v>
+        <v>0.05186039735443365</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0525167894099901</v>
+        <v>0.05557909314717292</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08861387060871848</v>
+        <v>0.09276152427293605</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2313916389737892</v>
+        <v>0.1741449584275124</v>
       </c>
     </row>
     <row r="23">
@@ -942,25 +950,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0736267531071834</v>
+        <v>0.07723988582087125</v>
       </c>
       <c r="C23" t="n">
-        <v>0.009303785497759677</v>
+        <v>0.009865516281999449</v>
       </c>
       <c r="D23" t="n">
-        <v>12.45567156672544</v>
+        <v>12.48328589402987</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06423078910071384</v>
+        <v>0.06059043561897473</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05528821543129862</v>
+        <v>0.05778157783675395</v>
       </c>
       <c r="G23" t="n">
-        <v>0.09196529078306862</v>
+        <v>0.09669819380498867</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2344530620716183</v>
+        <v>0.1772145355383292</v>
       </c>
     </row>
     <row r="24">
@@ -970,25 +978,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.07292401835203394</v>
+        <v>0.07718602813600076</v>
       </c>
       <c r="C24" t="n">
-        <v>0.009185032460107895</v>
+        <v>0.009728480677344241</v>
       </c>
       <c r="D24" t="n">
-        <v>12.37044371805256</v>
+        <v>12.6064153140849</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06432601468510835</v>
+        <v>0.06213822187789601</v>
       </c>
       <c r="F24" t="n">
-        <v>0.054800555255195</v>
+        <v>0.05801727871975782</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09104748144887269</v>
+        <v>0.09635477755224384</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2337503273164688</v>
+        <v>0.1771606778534587</v>
       </c>
     </row>
     <row r="25">
@@ -998,7 +1006,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0726479956090859</v>
+        <v>0.07734879572187313</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1006,7 +1014,7 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.2334743045735208</v>
+        <v>0.1773234454393311</v>
       </c>
     </row>
     <row r="26">
@@ -1016,25 +1024,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.07418613813383945</v>
+        <v>0.07825374208207501</v>
       </c>
       <c r="C26" t="n">
-        <v>0.009042659154478</v>
+        <v>0.009748176530615457</v>
       </c>
       <c r="D26" t="n">
-        <v>12.31473218072521</v>
+        <v>12.50851141378558</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05799442429438223</v>
+        <v>0.05652768866642089</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05621858621443261</v>
+        <v>0.05901889424862341</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0921536900532465</v>
+        <v>0.09748858991552674</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2350124470982743</v>
+        <v>0.178228391799533</v>
       </c>
     </row>
     <row r="27">
@@ -1044,25 +1052,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0753287945439718</v>
+        <v>0.07918421373277997</v>
       </c>
       <c r="C27" t="n">
-        <v>0.008936457523447109</v>
+        <v>0.009274613235989191</v>
       </c>
       <c r="D27" t="n">
-        <v>12.53089975934169</v>
+        <v>12.61071850318415</v>
       </c>
       <c r="E27" t="n">
-        <v>0.05936181188893366</v>
+        <v>0.06203709638046995</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05771417437498182</v>
+        <v>0.06094615922916893</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09294341471296168</v>
+        <v>0.09742226823639089</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2361551035084066</v>
+        <v>0.179158863450238</v>
       </c>
     </row>
     <row r="28">
@@ -1072,25 +1080,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.08053190531088809</v>
+        <v>0.08391664963040281</v>
       </c>
       <c r="C28" t="n">
-        <v>0.009664882244721128</v>
+        <v>0.01020587934181395</v>
       </c>
       <c r="D28" t="n">
-        <v>12.77457694250445</v>
+        <v>12.5630685237041</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08933556188651216</v>
+        <v>0.09219881588401212</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06152497125762652</v>
+        <v>0.06382598427914278</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09953883936414988</v>
+        <v>0.1040073149816627</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2413582142753229</v>
+        <v>0.1838912993478608</v>
       </c>
     </row>
     <row r="29">
@@ -1100,25 +1108,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0236734000856422</v>
+        <v>0.02579560098016311</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004613850401509348</v>
+        <v>0.01163375223296176</v>
       </c>
       <c r="D29" t="n">
-        <v>1.804235832232309</v>
+        <v>3.930030570390517</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004198081913558143</v>
+        <v>0.008226197361249696</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01455261036556817</v>
+        <v>0.002764995551323798</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03279418980571657</v>
+        <v>0.04882620640900252</v>
       </c>
       <c r="H29" t="n">
-        <v>0.184499709050077</v>
+        <v>0.1257702506976211</v>
       </c>
     </row>
   </sheetData>
